--- a/AQ_LEWIE_InputSheet.xlsx
+++ b/AQ_LEWIE_InputSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\Myanmar\AquaAgri\Analysis\AquaLEWIE_github\GAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\random_work\OilPalmLEWIE\ExampleLEWIE_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="680" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -1650,6 +1650,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1695,29 +1716,8 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2560,10 +2560,10 @@
   <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,12 +2591,12 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="318" t="s">
+      <c r="F1" s="325" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
       <c r="J1" s="249"/>
       <c r="K1" s="250"/>
       <c r="L1" s="4"/>
@@ -2606,14 +2606,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="319" t="s">
+      <c r="F2" s="326" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319" t="s">
+      <c r="G2" s="326"/>
+      <c r="H2" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="319"/>
+      <c r="I2" s="326"/>
       <c r="J2" s="119"/>
       <c r="L2" s="4"/>
     </row>
@@ -2663,7 +2663,7 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="323" t="s">
+      <c r="A5" s="330" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="216" t="s">
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="324"/>
+      <c r="A6" s="331"/>
       <c r="B6" s="216" t="s">
         <v>133</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="325"/>
+      <c r="A7" s="332"/>
       <c r="B7" s="216" t="s">
         <v>135</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="320" t="s">
+      <c r="A8" s="327" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="232" t="s">
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="321"/>
+      <c r="A9" s="328"/>
       <c r="B9" s="232" t="s">
         <v>46</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="321"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="33" t="s">
         <v>124</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="321"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="33" t="s">
         <v>124</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="321"/>
+      <c r="A12" s="328"/>
       <c r="B12" s="33" t="s">
         <v>124</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="321"/>
+      <c r="A13" s="328"/>
       <c r="B13" s="33" t="s">
         <v>124</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="321"/>
+      <c r="A14" s="328"/>
       <c r="B14" s="33" t="s">
         <v>124</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="321"/>
+      <c r="A15" s="328"/>
       <c r="B15" s="33" t="s">
         <v>124</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="321"/>
+      <c r="A16" s="328"/>
       <c r="B16" s="33" t="s">
         <v>124</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="321"/>
+      <c r="A17" s="328"/>
       <c r="B17" s="50" t="s">
         <v>125</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="321"/>
+      <c r="A18" s="328"/>
       <c r="B18" s="50" t="s">
         <v>125</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="321"/>
+      <c r="A19" s="328"/>
       <c r="B19" s="50" t="s">
         <v>125</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="321"/>
+      <c r="A20" s="328"/>
       <c r="B20" s="50" t="s">
         <v>125</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="321"/>
+      <c r="A21" s="328"/>
       <c r="B21" s="50" t="s">
         <v>125</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="321"/>
+      <c r="A22" s="328"/>
       <c r="B22" s="50" t="s">
         <v>125</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="321"/>
+      <c r="A23" s="328"/>
       <c r="B23" s="50" t="s">
         <v>125</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="321"/>
+      <c r="A24" s="328"/>
       <c r="B24" s="56" t="s">
         <v>126</v>
       </c>
@@ -3284,7 +3284,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="321"/>
+      <c r="A25" s="328"/>
       <c r="B25" s="56" t="s">
         <v>126</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="321"/>
+      <c r="A26" s="328"/>
       <c r="B26" s="56" t="s">
         <v>126</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="321"/>
+      <c r="A27" s="328"/>
       <c r="B27" s="56" t="s">
         <v>126</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="321"/>
+      <c r="A28" s="328"/>
       <c r="B28" s="56" t="s">
         <v>126</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="321"/>
+      <c r="A29" s="328"/>
       <c r="B29" s="56" t="s">
         <v>126</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="321"/>
+      <c r="A30" s="328"/>
       <c r="B30" s="56" t="s">
         <v>126</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="321"/>
+      <c r="A31" s="328"/>
       <c r="B31" s="34" t="s">
         <v>18</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="L31" s="193"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="321"/>
+      <c r="A32" s="328"/>
       <c r="B32" s="34" t="s">
         <v>115</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="L32" s="193"/>
     </row>
     <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="321"/>
+      <c r="A33" s="328"/>
       <c r="B33" s="34" t="s">
         <v>19</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="L33" s="193"/>
     </row>
     <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="321"/>
+      <c r="A34" s="328"/>
       <c r="B34" s="34" t="s">
         <v>114</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="L34" s="193"/>
     </row>
     <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="321"/>
+      <c r="A35" s="328"/>
       <c r="B35" s="34" t="s">
         <v>130</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="L35" s="193"/>
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="322"/>
+      <c r="A36" s="329"/>
       <c r="B36" s="34" t="s">
         <v>131</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="L36" s="193"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="311" t="s">
+      <c r="A37" s="318" t="s">
         <v>141</v>
       </c>
       <c r="B37" s="67" t="s">
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="312"/>
+      <c r="A38" s="319"/>
       <c r="B38" s="67" t="s">
         <v>129</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="AC38"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="312"/>
+      <c r="A39" s="319"/>
       <c r="B39" s="70" t="s">
         <v>129</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="312"/>
+      <c r="A40" s="319"/>
       <c r="B40" s="70" t="s">
         <v>129</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="312"/>
+      <c r="A41" s="319"/>
       <c r="B41" s="281" t="s">
         <v>129</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="L41" s="29"/>
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="312"/>
+      <c r="A42" s="319"/>
       <c r="B42" s="70" t="s">
         <v>129</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="312"/>
+      <c r="A43" s="319"/>
       <c r="B43" s="70" t="s">
         <v>129</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="312"/>
+      <c r="A44" s="319"/>
       <c r="B44" s="70" t="s">
         <v>129</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="312"/>
+      <c r="A45" s="319"/>
       <c r="B45" s="72" t="s">
         <v>129</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="AC45"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="312"/>
+      <c r="A46" s="319"/>
       <c r="B46" s="61" t="s">
         <v>100</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="312"/>
+      <c r="A47" s="319"/>
       <c r="B47" s="61" t="s">
         <v>100</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="L47" s="29"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="312"/>
+      <c r="A48" s="319"/>
       <c r="B48" s="61" t="s">
         <v>100</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="312"/>
+      <c r="A49" s="319"/>
       <c r="B49" s="64" t="s">
         <v>100</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="312"/>
+      <c r="A50" s="319"/>
       <c r="B50" s="67" t="s">
         <v>101</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="312"/>
+      <c r="A51" s="319"/>
       <c r="B51" s="70" t="s">
         <v>101</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="312"/>
+      <c r="A52" s="319"/>
       <c r="B52" s="70" t="s">
         <v>101</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="312"/>
+      <c r="A53" s="319"/>
       <c r="B53" s="70" t="s">
         <v>101</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="312"/>
+      <c r="A54" s="319"/>
       <c r="B54" s="81" t="s">
         <v>127</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="312"/>
+      <c r="A55" s="319"/>
       <c r="B55" s="84" t="s">
         <v>128</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="312"/>
+      <c r="A56" s="319"/>
       <c r="B56" s="187" t="s">
         <v>84</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="312"/>
+      <c r="A57" s="319"/>
       <c r="B57" s="187" t="s">
         <v>129</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="312"/>
+      <c r="A58" s="319"/>
       <c r="B58" s="187" t="s">
         <v>129</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="312"/>
+      <c r="A59" s="319"/>
       <c r="B59" s="187" t="s">
         <v>129</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="312"/>
+      <c r="A60" s="319"/>
       <c r="B60" s="187" t="s">
         <v>129</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="312"/>
+      <c r="A61" s="319"/>
       <c r="B61" s="187" t="s">
         <v>129</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="312"/>
+      <c r="A62" s="319"/>
       <c r="B62" s="187" t="s">
         <v>129</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="312"/>
+      <c r="A63" s="319"/>
       <c r="B63" s="187" t="s">
         <v>129</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="312"/>
+      <c r="A64" s="319"/>
       <c r="B64" s="187" t="s">
         <v>129</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="312"/>
+      <c r="A65" s="319"/>
       <c r="B65" s="278" t="s">
         <v>100</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="312"/>
+      <c r="A66" s="319"/>
       <c r="B66" s="278" t="s">
         <v>100</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="312"/>
+      <c r="A67" s="319"/>
       <c r="B67" s="278" t="s">
         <v>100</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="312"/>
+      <c r="A68" s="319"/>
       <c r="B68" s="278" t="s">
         <v>100</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="312"/>
+      <c r="A69" s="319"/>
       <c r="B69" s="187" t="s">
         <v>101</v>
       </c>
@@ -4393,7 +4393,7 @@
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="312"/>
+      <c r="A70" s="319"/>
       <c r="B70" s="187" t="s">
         <v>101</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="312"/>
+      <c r="A71" s="319"/>
       <c r="B71" s="187" t="s">
         <v>101</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="312"/>
+      <c r="A72" s="319"/>
       <c r="B72" s="187" t="s">
         <v>101</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="312"/>
+      <c r="A73" s="319"/>
       <c r="B73" s="278" t="s">
         <v>127</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="312"/>
+      <c r="A74" s="319"/>
       <c r="B74" s="278" t="s">
         <v>128</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="312"/>
+      <c r="A75" s="319"/>
       <c r="B75" s="87" t="s">
         <v>84</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="312"/>
+      <c r="A76" s="319"/>
       <c r="B76" s="87" t="s">
         <v>129</v>
       </c>
@@ -4591,7 +4591,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="312"/>
+      <c r="A77" s="319"/>
       <c r="B77" s="90" t="s">
         <v>129</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="L77" s="29"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="312"/>
+      <c r="A78" s="319"/>
       <c r="B78" s="90" t="s">
         <v>129</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="312"/>
+      <c r="A79" s="319"/>
       <c r="B79" s="90" t="s">
         <v>129</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="L79" s="29"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="312"/>
+      <c r="A80" s="319"/>
       <c r="B80" s="90" t="s">
         <v>129</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="L80" s="29"/>
     </row>
     <row r="81" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="312"/>
+      <c r="A81" s="319"/>
       <c r="B81" s="90" t="s">
         <v>129</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="L81" s="29"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A82" s="312"/>
+      <c r="A82" s="319"/>
       <c r="B82" s="93" t="s">
         <v>129</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="L82" s="29"/>
     </row>
     <row r="83" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="312"/>
+      <c r="A83" s="319"/>
       <c r="B83" s="75" t="s">
         <v>100</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="AC83"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="312"/>
+      <c r="A84" s="319"/>
       <c r="B84" s="77" t="s">
         <v>100</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="AC84" s="3"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A85" s="312"/>
+      <c r="A85" s="319"/>
       <c r="B85" s="77" t="s">
         <v>100</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="L85" s="29"/>
     </row>
     <row r="86" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="312"/>
+      <c r="A86" s="319"/>
       <c r="B86" s="79" t="s">
         <v>100</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="AC86"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A87" s="312"/>
+      <c r="A87" s="319"/>
       <c r="B87" s="90" t="s">
         <v>101</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A88" s="312"/>
+      <c r="A88" s="319"/>
       <c r="B88" s="90" t="s">
         <v>101</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="312"/>
+      <c r="A89" s="319"/>
       <c r="B89" s="90" t="s">
         <v>101</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="AC89"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A90" s="312"/>
+      <c r="A90" s="319"/>
       <c r="B90" s="90" t="s">
         <v>101</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="AC90" s="3"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A91" s="312"/>
+      <c r="A91" s="319"/>
       <c r="B91" s="75" t="s">
         <v>127</v>
       </c>
@@ -5129,7 +5129,7 @@
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A92" s="312"/>
+      <c r="A92" s="319"/>
       <c r="B92" s="79" t="s">
         <v>128</v>
       </c>
@@ -5149,7 +5149,7 @@
       </c>
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="312"/>
+      <c r="A93" s="319"/>
       <c r="B93" s="137" t="s">
         <v>84</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
     </row>
     <row r="94" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="312"/>
+      <c r="A94" s="319"/>
       <c r="B94" s="144" t="s">
         <v>129</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="312"/>
+      <c r="A95" s="319"/>
       <c r="B95" s="147" t="s">
         <v>129</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A96" s="312"/>
+      <c r="A96" s="319"/>
       <c r="B96" s="147" t="s">
         <v>129</v>
       </c>
@@ -5244,7 +5244,7 @@
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A97" s="312"/>
+      <c r="A97" s="319"/>
       <c r="B97" s="147" t="s">
         <v>129</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="L97" s="3"/>
     </row>
     <row r="98" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="312"/>
+      <c r="A98" s="319"/>
       <c r="B98" s="147" t="s">
         <v>129</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="AC98"/>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A99" s="312"/>
+      <c r="A99" s="319"/>
       <c r="B99" s="147" t="s">
         <v>129</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="AC99" s="3"/>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A100" s="312"/>
+      <c r="A100" s="319"/>
       <c r="B100" s="150" t="s">
         <v>129</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A101" s="312"/>
+      <c r="A101" s="319"/>
       <c r="B101" s="137" t="s">
         <v>100</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="312"/>
+      <c r="A102" s="319"/>
       <c r="B102" s="139" t="s">
         <v>100</v>
       </c>
@@ -5484,7 +5484,7 @@
       <c r="AC102"/>
     </row>
     <row r="103" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="312"/>
+      <c r="A103" s="319"/>
       <c r="B103" s="139" t="s">
         <v>100</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="L103" s="28"/>
     </row>
     <row r="104" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="312"/>
+      <c r="A104" s="319"/>
       <c r="B104" s="141" t="s">
         <v>100</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="L104" s="28"/>
     </row>
     <row r="105" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="312"/>
+      <c r="A105" s="319"/>
       <c r="B105" s="147" t="s">
         <v>101</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="L105" s="28"/>
     </row>
     <row r="106" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="312"/>
+      <c r="A106" s="319"/>
       <c r="B106" s="147" t="s">
         <v>101</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="L106" s="28"/>
     </row>
     <row r="107" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="312"/>
+      <c r="A107" s="319"/>
       <c r="B107" s="147" t="s">
         <v>101</v>
       </c>
@@ -5626,7 +5626,7 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="312"/>
+      <c r="A108" s="319"/>
       <c r="B108" s="147" t="s">
         <v>101</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="L108" s="4"/>
     </row>
     <row r="109" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="312"/>
+      <c r="A109" s="319"/>
       <c r="B109" s="137" t="s">
         <v>127</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="312"/>
+      <c r="A110" s="319"/>
       <c r="B110" s="141" t="s">
         <v>128</v>
       </c>
@@ -5682,7 +5682,7 @@
       <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="312"/>
+      <c r="A111" s="319"/>
       <c r="B111" s="162" t="s">
         <v>84</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
     </row>
     <row r="112" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="312"/>
+      <c r="A112" s="319"/>
       <c r="B112" s="153" t="s">
         <v>129</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="312"/>
+      <c r="A113" s="319"/>
       <c r="B113" s="156" t="s">
         <v>129</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="312"/>
+      <c r="A114" s="319"/>
       <c r="B114" s="156" t="s">
         <v>129</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="L114" s="4"/>
     </row>
     <row r="115" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="312"/>
+      <c r="A115" s="319"/>
       <c r="B115" s="156" t="s">
         <v>129</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="312"/>
+      <c r="A116" s="319"/>
       <c r="B116" s="156" t="s">
         <v>129</v>
       </c>
@@ -5832,7 +5832,7 @@
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A117" s="312"/>
+      <c r="A117" s="319"/>
       <c r="B117" s="156" t="s">
         <v>129</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="AC117" s="3"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="312"/>
+      <c r="A118" s="319"/>
       <c r="B118" s="159" t="s">
         <v>129</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="L118" s="4"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="312"/>
+      <c r="A119" s="319"/>
       <c r="B119" s="162" t="s">
         <v>100</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="312"/>
+      <c r="A120" s="319"/>
       <c r="B120" s="165" t="s">
         <v>100</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="AC120"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="312"/>
+      <c r="A121" s="319"/>
       <c r="B121" s="165" t="s">
         <v>100</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="AC121" s="3"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="312"/>
+      <c r="A122" s="319"/>
       <c r="B122" s="167" t="s">
         <v>100</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="312"/>
+      <c r="A123" s="319"/>
       <c r="B123" s="156" t="s">
         <v>101</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="312"/>
+      <c r="A124" s="319"/>
       <c r="B124" s="156" t="s">
         <v>101</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="L124" s="4"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="312"/>
+      <c r="A125" s="319"/>
       <c r="B125" s="156" t="s">
         <v>101</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="312"/>
+      <c r="A126" s="319"/>
       <c r="B126" s="156" t="s">
         <v>101</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="312"/>
+      <c r="A127" s="319"/>
       <c r="B127" s="162" t="s">
         <v>127</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="312"/>
+      <c r="A128" s="319"/>
       <c r="B128" s="167" t="s">
         <v>128</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="L128" s="4"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="312"/>
+      <c r="A129" s="319"/>
       <c r="B129" s="173" t="s">
         <v>84</v>
       </c>
@@ -6214,7 +6214,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="312"/>
+      <c r="A130" s="319"/>
       <c r="B130" s="184" t="s">
         <v>129</v>
       </c>
@@ -6234,7 +6234,7 @@
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="312"/>
+      <c r="A131" s="319"/>
       <c r="B131" s="187" t="s">
         <v>129</v>
       </c>
@@ -6254,7 +6254,7 @@
       <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="312"/>
+      <c r="A132" s="319"/>
       <c r="B132" s="187" t="s">
         <v>129</v>
       </c>
@@ -6274,7 +6274,7 @@
       <c r="L132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="312"/>
+      <c r="A133" s="319"/>
       <c r="B133" s="187" t="s">
         <v>129</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="L133" s="4"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="312"/>
+      <c r="A134" s="319"/>
       <c r="B134" s="187" t="s">
         <v>129</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="312"/>
+      <c r="A135" s="319"/>
       <c r="B135" s="187" t="s">
         <v>129</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="L135" s="30"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="312"/>
+      <c r="A136" s="319"/>
       <c r="B136" s="190" t="s">
         <v>129</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="312"/>
+      <c r="A137" s="319"/>
       <c r="B137" s="173" t="s">
         <v>100</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="312"/>
+      <c r="A138" s="319"/>
       <c r="B138" s="176" t="s">
         <v>100</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="312"/>
+      <c r="A139" s="319"/>
       <c r="B139" s="176" t="s">
         <v>100</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="312"/>
+      <c r="A140" s="319"/>
       <c r="B140" s="178" t="s">
         <v>100</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="312"/>
+      <c r="A141" s="319"/>
       <c r="B141" s="187" t="s">
         <v>101</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="L141" s="215"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="312"/>
+      <c r="A142" s="319"/>
       <c r="B142" s="187" t="s">
         <v>101</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="L142" s="215"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="312"/>
+      <c r="A143" s="319"/>
       <c r="B143" s="187" t="s">
         <v>101</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="312"/>
+      <c r="A144" s="319"/>
       <c r="B144" s="187" t="s">
         <v>101</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="L144" s="40"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="312"/>
+      <c r="A145" s="319"/>
       <c r="B145" s="173" t="s">
         <v>127</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="313"/>
+      <c r="A146" s="320"/>
       <c r="B146" s="178" t="s">
         <v>128</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="L146" s="40"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="314" t="s">
+      <c r="A147" s="321" t="s">
         <v>142</v>
       </c>
       <c r="B147" s="239" t="s">
@@ -6645,7 +6645,7 @@
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="315"/>
+      <c r="A148" s="322"/>
       <c r="B148" s="243" t="s">
         <v>12</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="L148" s="4"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="315"/>
+      <c r="A149" s="322"/>
       <c r="B149" s="243" t="s">
         <v>12</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="J149" s="231"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="315"/>
+      <c r="A150" s="322"/>
       <c r="B150" s="236" t="s">
         <v>134</v>
       </c>
@@ -6711,7 +6711,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="315"/>
+      <c r="A151" s="322"/>
       <c r="B151" s="243" t="s">
         <v>15</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="J151" s="231"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="315"/>
+      <c r="A152" s="322"/>
       <c r="B152" s="243" t="s">
         <v>16</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="J152" s="231"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="316"/>
+      <c r="A153" s="323"/>
       <c r="B153" s="244" t="s">
         <v>17</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="K153" s="277"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="317" t="s">
+      <c r="A154" s="324" t="s">
         <v>143</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -6771,7 +6771,7 @@
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="317"/>
+      <c r="A155" s="324"/>
       <c r="B155" s="3" t="s">
         <v>21</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="317"/>
+      <c r="A156" s="324"/>
       <c r="B156" s="3" t="s">
         <v>22</v>
       </c>
@@ -6789,7 +6789,7 @@
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="317"/>
+      <c r="A157" s="324"/>
       <c r="B157" s="3" t="s">
         <v>23</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="317"/>
+      <c r="A158" s="324"/>
       <c r="B158" s="3" t="s">
         <v>24</v>
       </c>
@@ -6807,7 +6807,7 @@
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="317"/>
+      <c r="A159" s="324"/>
       <c r="B159" s="3" t="s">
         <v>52</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="317"/>
+      <c r="A160" s="324"/>
       <c r="B160" s="10" t="s">
         <v>47</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="317"/>
+      <c r="A161" s="324"/>
       <c r="B161" s="10" t="s">
         <v>48</v>
       </c>
@@ -6836,7 +6836,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="317"/>
+      <c r="A162" s="324"/>
       <c r="B162" s="10" t="s">
         <v>47</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="317"/>
+      <c r="A163" s="324"/>
       <c r="B163" s="10" t="s">
         <v>48</v>
       </c>
@@ -6856,7 +6856,7 @@
       <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="317"/>
+      <c r="A164" s="324"/>
       <c r="B164" t="s">
         <v>50</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="317"/>
+      <c r="A165" s="324"/>
       <c r="B165" t="s">
         <v>51</v>
       </c>
@@ -8176,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8210,23 +8210,23 @@
       <c r="H2" t="s">
         <v>154</v>
       </c>
-      <c r="Y2" s="326" t="s">
+      <c r="Y2" s="311" t="s">
         <v>180</v>
       </c>
-      <c r="Z2" s="326" t="s">
+      <c r="Z2" s="311" t="s">
         <v>181</v>
       </c>
-      <c r="AA2" s="327" t="s">
+      <c r="AA2" s="312" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" s="327" t="s">
+      <c r="AB2" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="AC2" s="332" t="s">
+      <c r="AC2" s="333" t="s">
         <v>187</v>
       </c>
-      <c r="AD2" s="332"/>
-      <c r="AE2" s="332"/>
+      <c r="AD2" s="333"/>
+      <c r="AE2" s="333"/>
     </row>
     <row r="3" spans="1:31" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -8250,25 +8250,25 @@
       <c r="H3" s="27">
         <v>18.116273880004883</v>
       </c>
-      <c r="Y3" s="328" t="s">
+      <c r="Y3" s="313" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="328" t="s">
+      <c r="Z3" s="313" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="314" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="329" t="s">
+      <c r="AB3" s="314" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="330" t="s">
+      <c r="AC3" s="315" t="s">
         <v>188</v>
       </c>
-      <c r="AD3" s="330" t="s">
+      <c r="AD3" s="315" t="s">
         <v>189</v>
       </c>
-      <c r="AE3" s="331" t="s">
+      <c r="AE3" s="316" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       <c r="H5">
         <v>93.977943420410156</v>
       </c>
-      <c r="X5" s="333" t="s">
+      <c r="X5" s="317" t="s">
         <v>192</v>
       </c>
       <c r="Y5" s="32">
@@ -8350,7 +8350,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X6" s="333" t="s">
+      <c r="X6" s="317" t="s">
         <v>193</v>
       </c>
       <c r="Y6" s="32">
@@ -8370,20 +8370,20 @@
         <v>0</v>
       </c>
       <c r="AC6" s="32">
-        <f t="shared" ref="AC6:AC11" si="1">S14</f>
+        <f t="shared" ref="AC6:AC7" si="1">S14</f>
         <v>0</v>
       </c>
       <c r="AD6" s="32">
-        <f t="shared" ref="AD6:AD11" si="2">T14</f>
+        <f t="shared" ref="AD6:AD7" si="2">T14</f>
         <v>0</v>
       </c>
       <c r="AE6" s="32">
-        <f t="shared" ref="AE6:AE11" si="3">U14</f>
+        <f t="shared" ref="AE6:AE7" si="3">U14</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X7" s="333" t="s">
+      <c r="X7" s="317" t="s">
         <v>194</v>
       </c>
       <c r="Y7" s="32">
@@ -8497,7 +8497,7 @@
       <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="X9" s="333" t="s">
+      <c r="X9" s="317" t="s">
         <v>195</v>
       </c>
       <c r="Y9" s="32">
@@ -8517,15 +8517,15 @@
         <v>0</v>
       </c>
       <c r="AC9" s="32">
-        <f>S16</f>
+        <f t="shared" ref="AC9:AE12" si="4">S16</f>
         <v>0</v>
       </c>
       <c r="AD9" s="32">
-        <f>T16</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE9" s="32">
-        <f>U16</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
       <c r="K10" s="17">
         <v>6.6375721112827385E-2</v>
       </c>
-      <c r="X10" s="333" t="s">
+      <c r="X10" s="317" t="s">
         <v>196</v>
       </c>
       <c r="Y10" s="32">
@@ -8583,15 +8583,15 @@
         <v>0</v>
       </c>
       <c r="AC10" s="32">
-        <f>S17</f>
+        <f t="shared" si="4"/>
         <v>0.23985033140972059</v>
       </c>
       <c r="AD10" s="32">
-        <f>T17</f>
+        <f t="shared" si="4"/>
         <v>0.22132619720658231</v>
       </c>
       <c r="AE10" s="32">
-        <f>U17</f>
+        <f t="shared" si="4"/>
         <v>0.30252753785658371</v>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
       <c r="U11" t="s">
         <v>179</v>
       </c>
-      <c r="X11" s="333" t="s">
+      <c r="X11" s="317" t="s">
         <v>197</v>
       </c>
       <c r="Y11" s="32">
@@ -8658,15 +8658,15 @@
         <v>1.4046106199844404E-2</v>
       </c>
       <c r="AC11" s="32">
-        <f>S18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD11" s="32">
-        <f>T18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE11" s="32">
-        <f>U18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
         <f>Input!F129</f>
         <v>82.587501525878906</v>
       </c>
-      <c r="X12" s="333" t="s">
+      <c r="X12" s="317" t="s">
         <v>198</v>
       </c>
       <c r="Y12" s="32">
@@ -8735,15 +8735,15 @@
         <v>9.7356770042985347E-2</v>
       </c>
       <c r="AC12" s="32">
-        <f>S19</f>
+        <f t="shared" si="4"/>
         <v>0.14828300141565628</v>
       </c>
       <c r="AD12" s="32">
-        <f>T19</f>
+        <f t="shared" si="4"/>
         <v>0.1363825833664721</v>
       </c>
       <c r="AE12" s="32">
-        <f>U19</f>
+        <f t="shared" si="4"/>
         <v>0.37553999646588632</v>
       </c>
     </row>
@@ -9158,11 +9158,11 @@
         <v>69</v>
       </c>
       <c r="C27" s="13">
-        <f t="shared" ref="C27" si="4">C22*(1-D22)</f>
+        <f t="shared" ref="C27" si="5">C22*(1-D22)</f>
         <v>0.22132619720658231</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D28" si="5">C22*D22</f>
+        <f t="shared" ref="D27:D28" si="6">C22*D22</f>
         <v>0.1363825833664721</v>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
         <v>0.30252753785658371</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37553999646588632</v>
       </c>
     </row>
